--- a/12_HandleTable_CallBack/02 私有句柄表 句柄降权保护.xlsx
+++ b/12_HandleTable_CallBack/02 私有句柄表 句柄降权保护.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\12_HandleTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\12_HandleTable_CallBack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816B3D1A-0E03-46E9-B59A-C985A30FE455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33922BFD-87A2-46AF-9EAE-C10E5DC4E353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -328,10 +328,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4、句柄降权(遍历每个进程的私有句柄表)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">#define PROCESS_VM_READ                    (0x0010)  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -356,6 +352,10 @@
   </si>
   <si>
     <t>SetHandleAccess(TargetProcess, pProcess);</t>
+  </si>
+  <si>
+    <t>4、句柄降权(遍历每个进程的私有句柄表，匹配进程对象时，可以深入的检查特征 pid、name、私有句柄表、*CR3* ...)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -901,7 +901,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -933,19 +933,19 @@
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -953,7 +953,7 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -961,14 +961,14 @@
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -980,14 +980,14 @@
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1001,7 +1001,7 @@
     <hyperlink ref="B8" location="Sheet2!A1" display="1、查看私有句柄表" xr:uid="{4E89C456-87F0-42FE-A1C3-537BD894A6C0}"/>
     <hyperlink ref="B10" location="Sheet3!A1" display="2、私有句柄表的属性位(handle_table_entry.Object的低3位)" xr:uid="{19C8FEF5-9A4A-4861-882F-059129E04F23}"/>
     <hyperlink ref="B12" location="Sheet4!A1" display="3、私有句柄表的权限掩码 handle_table_entry.GrantedAccess (句柄回调保护)" xr:uid="{666ACC47-8870-47A0-9CEB-FA19D9A002D4}"/>
-    <hyperlink ref="B14" r:id="rId1" xr:uid="{3E3651B0-259C-458F-AE7A-62D001C8757D}"/>
+    <hyperlink ref="B14" r:id="rId1" display="4、句柄降权(遍历每个进程的私有句柄表)" xr:uid="{3E3651B0-259C-458F-AE7A-62D001C8757D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
